--- a/data/china_ie_partner/2019-09.xlsx
+++ b/data/china_ie_partner/2019-09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7551B6-1AF6-0845-95A9-63714D0B7652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB0E0B-02C0-894A-8DF4-A01F4141B4E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,666 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -703,79 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -838,10 +1082,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1227,24 +1472,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>41011</v>
+        <v>58470</v>
       </c>
       <c r="C2" s="3">
-        <v>40354</v>
+        <v>57537</v>
       </c>
       <c r="D2" s="2">
-        <v>657</v>
+        <v>934</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
@@ -1258,17 +1503,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>110823</v>
+        <v>159274</v>
       </c>
       <c r="C3" s="3">
-        <v>81234</v>
+        <v>117230</v>
       </c>
       <c r="D3" s="3">
-        <v>29588</v>
+        <v>42044</v>
       </c>
       <c r="E3" s="6">
         <v>2019</v>
@@ -1282,17 +1527,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>1094784</v>
+        <v>1564049</v>
       </c>
       <c r="C4" s="3">
-        <v>1042205</v>
+        <v>1489149</v>
       </c>
       <c r="D4" s="3">
-        <v>52579</v>
+        <v>74900</v>
       </c>
       <c r="E4" s="6">
         <v>2019</v>
@@ -1306,17 +1551,17 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>748</v>
-      </c>
-      <c r="C5" s="2">
-        <v>739</v>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1065</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1052</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6">
         <v>2019</v>
@@ -1330,17 +1575,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>81230</v>
+        <v>117279</v>
       </c>
       <c r="C6" s="3">
-        <v>73268</v>
+        <v>105901</v>
       </c>
       <c r="D6" s="3">
-        <v>7962</v>
+        <v>11377</v>
       </c>
       <c r="E6" s="6">
         <v>2019</v>
@@ -1354,17 +1599,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+      <c r="A7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>1076117</v>
+        <v>1527995</v>
       </c>
       <c r="C7" s="3">
-        <v>733053</v>
+        <v>1042335</v>
       </c>
       <c r="D7" s="3">
-        <v>343064</v>
+        <v>485660</v>
       </c>
       <c r="E7" s="6">
         <v>2019</v>
@@ -1378,17 +1623,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
+      <c r="A8" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>534703</v>
+        <v>763633</v>
       </c>
       <c r="C8" s="3">
-        <v>458675</v>
+        <v>655473</v>
       </c>
       <c r="D8" s="3">
-        <v>76028</v>
+        <v>108160</v>
       </c>
       <c r="E8" s="6">
         <v>2019</v>
@@ -1402,17 +1647,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>29496</v>
+        <v>42223</v>
       </c>
       <c r="C9" s="3">
-        <v>27945</v>
+        <v>40028</v>
       </c>
       <c r="D9" s="3">
-        <v>1551</v>
+        <v>2195</v>
       </c>
       <c r="E9" s="6">
         <v>2019</v>
@@ -1426,17 +1671,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>171660</v>
+        <v>243719</v>
       </c>
       <c r="C10" s="3">
-        <v>160226</v>
+        <v>227520</v>
       </c>
       <c r="D10" s="3">
-        <v>11434</v>
+        <v>16200</v>
       </c>
       <c r="E10" s="6">
         <v>2019</v>
@@ -1451,16 +1696,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="8" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>18412674</v>
+        <v>26192639</v>
       </c>
       <c r="C11" s="3">
-        <v>17836591</v>
+        <v>25373454</v>
       </c>
       <c r="D11" s="3">
-        <v>576083</v>
+        <v>819186</v>
       </c>
       <c r="E11" s="6">
         <v>2019</v>
@@ -1474,17 +1719,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>5521675</v>
+        <v>7877799</v>
       </c>
       <c r="C12" s="3">
-        <v>4511597</v>
+        <v>6439983</v>
       </c>
       <c r="D12" s="3">
-        <v>1010078</v>
+        <v>1437816</v>
       </c>
       <c r="E12" s="6">
         <v>2019</v>
@@ -1498,17 +1743,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>5040780</v>
+        <v>7194431</v>
       </c>
       <c r="C13" s="3">
-        <v>2854039</v>
+        <v>4077533</v>
       </c>
       <c r="D13" s="3">
-        <v>2186741</v>
+        <v>3116897</v>
       </c>
       <c r="E13" s="6">
         <v>2019</v>
@@ -1522,17 +1767,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>1170104</v>
+        <v>1666293</v>
       </c>
       <c r="C14" s="3">
-        <v>591345</v>
+        <v>842883</v>
       </c>
       <c r="D14" s="3">
-        <v>578759</v>
+        <v>823410</v>
       </c>
       <c r="E14" s="6">
         <v>2019</v>
@@ -1546,17 +1791,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
+      <c r="A15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>1910164</v>
+        <v>2717819</v>
       </c>
       <c r="C15" s="3">
-        <v>431451</v>
+        <v>617188</v>
       </c>
       <c r="D15" s="3">
-        <v>1478713</v>
+        <v>2100631</v>
       </c>
       <c r="E15" s="6">
         <v>2019</v>
@@ -1570,17 +1815,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
+      <c r="A16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>928596</v>
+        <v>1323013</v>
       </c>
       <c r="C16" s="3">
-        <v>556762</v>
+        <v>794811</v>
       </c>
       <c r="D16" s="3">
-        <v>371833</v>
+        <v>528202</v>
       </c>
       <c r="E16" s="6">
         <v>2019</v>
@@ -1594,17 +1839,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
+      <c r="A17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>19648269</v>
+        <v>28009434</v>
       </c>
       <c r="C17" s="3">
-        <v>9006871</v>
+        <v>12851299</v>
       </c>
       <c r="D17" s="3">
-        <v>10641398</v>
+        <v>15158135</v>
       </c>
       <c r="E17" s="6">
         <v>2019</v>
@@ -1618,17 +1863,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
+      <c r="A18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>283841</v>
+        <v>405008</v>
       </c>
       <c r="C18" s="3">
-        <v>242868</v>
+        <v>346618</v>
       </c>
       <c r="D18" s="3">
-        <v>40972</v>
+        <v>58390</v>
       </c>
       <c r="E18" s="6">
         <v>2019</v>
@@ -1642,17 +1887,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
+      <c r="A19" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>758370</v>
+        <v>1080674</v>
       </c>
       <c r="C19" s="3">
-        <v>217317</v>
+        <v>311272</v>
       </c>
       <c r="D19" s="3">
-        <v>541053</v>
+        <v>769402</v>
       </c>
       <c r="E19" s="6">
         <v>2019</v>
@@ -1666,17 +1911,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
+      <c r="A20" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>232019</v>
+        <v>329823</v>
       </c>
       <c r="C20" s="3">
-        <v>115922</v>
+        <v>164850</v>
       </c>
       <c r="D20" s="3">
-        <v>116096</v>
+        <v>164973</v>
       </c>
       <c r="E20" s="6">
         <v>2019</v>
@@ -1690,17 +1935,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>109579</v>
+        <v>156588</v>
       </c>
       <c r="C21" s="3">
-        <v>108081</v>
+        <v>154457</v>
       </c>
       <c r="D21" s="3">
-        <v>1498</v>
+        <v>2132</v>
       </c>
       <c r="E21" s="6">
         <v>2019</v>
@@ -1714,17 +1959,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="5" t="s">
-        <v>225</v>
+      <c r="A22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>207300</v>
+        <v>294755</v>
       </c>
       <c r="C22" s="3">
-        <v>203082</v>
+        <v>288745</v>
       </c>
       <c r="D22" s="3">
-        <v>4218</v>
+        <v>6010</v>
       </c>
       <c r="E22" s="6">
         <v>2019</v>
@@ -1738,17 +1983,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
+      <c r="A23" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>8031354</v>
+        <v>11439151</v>
       </c>
       <c r="C23" s="3">
-        <v>3051045</v>
+        <v>4355781</v>
       </c>
       <c r="D23" s="3">
-        <v>4980309</v>
+        <v>7083370</v>
       </c>
       <c r="E23" s="6">
         <v>2019</v>
@@ -1762,17 +2007,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>25260</v>
+        <v>36106</v>
       </c>
       <c r="C24" s="3">
-        <v>25260</v>
+        <v>36106</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6">
         <v>2019</v>
@@ -1786,17 +2031,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
+      <c r="A25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>519266</v>
+        <v>739050</v>
       </c>
       <c r="C25" s="3">
-        <v>139944</v>
+        <v>198781</v>
       </c>
       <c r="D25" s="3">
-        <v>379322</v>
+        <v>540269</v>
       </c>
       <c r="E25" s="6">
         <v>2019</v>
@@ -1810,17 +2055,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="5" t="s">
-        <v>226</v>
+      <c r="A26" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>116806</v>
+        <v>165894</v>
       </c>
       <c r="C26" s="3">
-        <v>114658</v>
+        <v>162852</v>
       </c>
       <c r="D26" s="3">
-        <v>2148</v>
+        <v>3043</v>
       </c>
       <c r="E26" s="6">
         <v>2019</v>
@@ -1834,17 +2079,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1112092</v>
+        <v>1583437</v>
       </c>
       <c r="C27" s="3">
-        <v>180371</v>
+        <v>257465</v>
       </c>
       <c r="D27" s="3">
-        <v>931721</v>
+        <v>1325972</v>
       </c>
       <c r="E27" s="6">
         <v>2019</v>
@@ -1858,17 +2103,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>1071842</v>
+        <v>1529774</v>
       </c>
       <c r="C28" s="3">
-        <v>1009120</v>
+        <v>1440378</v>
       </c>
       <c r="D28" s="3">
-        <v>62722</v>
+        <v>89395</v>
       </c>
       <c r="E28" s="6">
         <v>2019</v>
@@ -1882,14 +2127,14 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
+      <c r="A29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>4531</v>
+        <v>6472</v>
       </c>
       <c r="C29" s="3">
-        <v>4529</v>
+        <v>6469</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -1906,17 +2151,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>3822975</v>
+        <v>5456661</v>
       </c>
       <c r="C30" s="3">
-        <v>2459492</v>
+        <v>3515877</v>
       </c>
       <c r="D30" s="3">
-        <v>1363483</v>
+        <v>1940784</v>
       </c>
       <c r="E30" s="6">
         <v>2019</v>
@@ -1930,17 +2175,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
+      <c r="A31" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>616159</v>
+        <v>879770</v>
       </c>
       <c r="C31" s="3">
-        <v>116473</v>
+        <v>166436</v>
       </c>
       <c r="D31" s="3">
-        <v>499685</v>
+        <v>713333</v>
       </c>
       <c r="E31" s="6">
         <v>2019</v>
@@ -1954,17 +2199,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
+      <c r="A32" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>4385605</v>
+        <v>6246053</v>
       </c>
       <c r="C32" s="3">
-        <v>1281346</v>
+        <v>1830193</v>
       </c>
       <c r="D32" s="3">
-        <v>3104259</v>
+        <v>4415860</v>
       </c>
       <c r="E32" s="6">
         <v>2019</v>
@@ -1978,17 +2223,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>5250545</v>
+        <v>7495292</v>
       </c>
       <c r="C33" s="3">
-        <v>3110025</v>
+        <v>4449186</v>
       </c>
       <c r="D33" s="3">
-        <v>2140520</v>
+        <v>3046105</v>
       </c>
       <c r="E33" s="6">
         <v>2019</v>
@@ -2002,17 +2247,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>16585134</v>
+        <v>23613724</v>
       </c>
       <c r="C34" s="3">
-        <v>6068727</v>
+        <v>8650057</v>
       </c>
       <c r="D34" s="3">
-        <v>10516407</v>
+        <v>14963667</v>
       </c>
       <c r="E34" s="6">
         <v>2019</v>
@@ -2026,17 +2271,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
+      <c r="A35" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>322393</v>
+        <v>459879</v>
       </c>
       <c r="C35" s="3">
-        <v>264193</v>
+        <v>377218</v>
       </c>
       <c r="D35" s="3">
-        <v>58200</v>
+        <v>82661</v>
       </c>
       <c r="E35" s="6">
         <v>2019</v>
@@ -2050,17 +2295,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>72588</v>
+        <v>103602</v>
       </c>
       <c r="C36" s="3">
-        <v>72577</v>
+        <v>103586</v>
       </c>
       <c r="D36" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36" s="6">
         <v>2019</v>
@@ -2074,17 +2319,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
+      <c r="A37" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>5472466</v>
+        <v>7801911</v>
       </c>
       <c r="C37" s="3">
-        <v>2658372</v>
+        <v>3795028</v>
       </c>
       <c r="D37" s="3">
-        <v>2814094</v>
+        <v>4006883</v>
       </c>
       <c r="E37" s="6">
         <v>2019</v>
@@ -2098,17 +2343,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
+      <c r="A38" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1151715</v>
+        <v>1643819</v>
       </c>
       <c r="C38" s="3">
-        <v>935439</v>
+        <v>1336115</v>
       </c>
       <c r="D38" s="3">
-        <v>216276</v>
+        <v>307704</v>
       </c>
       <c r="E38" s="6">
         <v>2019</v>
@@ -2122,17 +2367,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
+      <c r="A39" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>2883032</v>
+        <v>4107066</v>
       </c>
       <c r="C39" s="3">
-        <v>1853654</v>
+        <v>2643892</v>
       </c>
       <c r="D39" s="3">
-        <v>1029378</v>
+        <v>1463174</v>
       </c>
       <c r="E39" s="6">
         <v>2019</v>
@@ -2146,17 +2391,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
+      <c r="A40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>139367</v>
+        <v>198522</v>
       </c>
       <c r="C40" s="3">
-        <v>138897</v>
+        <v>197852</v>
       </c>
       <c r="D40" s="2">
-        <v>470</v>
+        <v>670</v>
       </c>
       <c r="E40" s="6">
         <v>2019</v>
@@ -2170,17 +2415,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
+      <c r="A41" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>10676961</v>
+        <v>15201165</v>
       </c>
       <c r="C41" s="3">
-        <v>5554971</v>
+        <v>7911007</v>
       </c>
       <c r="D41" s="3">
-        <v>5121990</v>
+        <v>7290158</v>
       </c>
       <c r="E41" s="6">
         <v>2019</v>
@@ -2194,17 +2439,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
+      <c r="A42" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>8003909</v>
+        <v>11389564</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>8003909</v>
+        <v>11389564</v>
       </c>
       <c r="E42" s="6">
         <v>2019</v>
@@ -2219,16 +2464,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="8" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>14350891</v>
+        <v>20437183</v>
       </c>
       <c r="C43" s="3">
-        <v>3416342</v>
+        <v>4871496</v>
       </c>
       <c r="D43" s="3">
-        <v>10934549</v>
+        <v>15565687</v>
       </c>
       <c r="E43" s="6">
         <v>2019</v>
@@ -2242,17 +2487,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
+      <c r="A44" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>17612</v>
+        <v>25069</v>
       </c>
       <c r="C44" s="3">
-        <v>16990</v>
+        <v>24186</v>
       </c>
       <c r="D44" s="2">
-        <v>622</v>
+        <v>883</v>
       </c>
       <c r="E44" s="6">
         <v>2019</v>
@@ -2266,17 +2511,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
+      <c r="A45" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1920211</v>
+        <v>2739104</v>
       </c>
       <c r="C45" s="3">
-        <v>1216251</v>
+        <v>1736612</v>
       </c>
       <c r="D45" s="3">
-        <v>703960</v>
+        <v>1002493</v>
       </c>
       <c r="E45" s="6">
         <v>2019</v>
@@ -2290,17 +2535,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
+      <c r="A46" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>672009</v>
+        <v>958167</v>
       </c>
       <c r="C46" s="3">
-        <v>667148</v>
+        <v>951252</v>
       </c>
       <c r="D46" s="3">
-        <v>4861</v>
+        <v>6915</v>
       </c>
       <c r="E46" s="6">
         <v>2019</v>
@@ -2314,17 +2559,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
+      <c r="A47" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>135005</v>
+        <v>192866</v>
       </c>
       <c r="C47" s="3">
-        <v>134686</v>
+        <v>192412</v>
       </c>
       <c r="D47" s="2">
-        <v>319</v>
+        <v>453</v>
       </c>
       <c r="E47" s="6">
         <v>2019</v>
@@ -2338,17 +2583,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
+      <c r="A48" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>567138</v>
+        <v>806066</v>
       </c>
       <c r="C48" s="3">
-        <v>55896</v>
+        <v>80202</v>
       </c>
       <c r="D48" s="3">
-        <v>511242</v>
+        <v>725864</v>
       </c>
       <c r="E48" s="6">
         <v>2019</v>
@@ -2362,17 +2607,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="5" t="s">
-        <v>227</v>
+      <c r="A49" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>527849</v>
+        <v>755252</v>
       </c>
       <c r="C49" s="3">
-        <v>400010</v>
+        <v>573183</v>
       </c>
       <c r="D49" s="3">
-        <v>127839</v>
+        <v>182069</v>
       </c>
       <c r="E49" s="6">
         <v>2019</v>
@@ -2386,17 +2631,17 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
+      <c r="A50" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="6">
         <v>2019</v>
@@ -2410,17 +2655,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
+      <c r="A51" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>11413071</v>
+        <v>16276699</v>
       </c>
       <c r="C51" s="3">
-        <v>6493492</v>
+        <v>9276072</v>
       </c>
       <c r="D51" s="3">
-        <v>4919580</v>
+        <v>7000627</v>
       </c>
       <c r="E51" s="6">
         <v>2019</v>
@@ -2434,17 +2679,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
+      <c r="A52" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>382473</v>
+        <v>545930</v>
       </c>
       <c r="C52" s="3">
-        <v>329114</v>
+        <v>470234</v>
       </c>
       <c r="D52" s="3">
-        <v>53359</v>
+        <v>75696</v>
       </c>
       <c r="E52" s="6">
         <v>2019</v>
@@ -2458,17 +2703,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="5" t="s">
-        <v>49</v>
+      <c r="A53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1182596</v>
+        <v>1685339</v>
       </c>
       <c r="C53" s="3">
-        <v>148652</v>
+        <v>212676</v>
       </c>
       <c r="D53" s="3">
-        <v>1033944</v>
+        <v>1472662</v>
       </c>
       <c r="E53" s="6">
         <v>2019</v>
@@ -2482,17 +2727,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="5" t="s">
-        <v>50</v>
+      <c r="A54" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>126887</v>
+        <v>181361</v>
       </c>
       <c r="C54" s="3">
-        <v>121779</v>
+        <v>174061</v>
       </c>
       <c r="D54" s="3">
-        <v>5108</v>
+        <v>7300</v>
       </c>
       <c r="E54" s="6">
         <v>2019</v>
@@ -2506,17 +2751,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
+      <c r="A55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>17636</v>
+        <v>25177</v>
       </c>
       <c r="C55" s="3">
-        <v>16895</v>
-      </c>
-      <c r="D55" s="2">
-        <v>741</v>
+        <v>24125</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1052</v>
       </c>
       <c r="E55" s="6">
         <v>2019</v>
@@ -2530,17 +2775,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
+      <c r="A56" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>3649</v>
+        <v>5230</v>
       </c>
       <c r="C56" s="3">
-        <v>3408</v>
+        <v>4888</v>
       </c>
       <c r="D56" s="2">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="E56" s="6">
         <v>2019</v>
@@ -2554,17 +2799,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>228</v>
+      <c r="A57" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>171550</v>
+        <v>244301</v>
       </c>
       <c r="C57" s="3">
-        <v>104978</v>
+        <v>149738</v>
       </c>
       <c r="D57" s="3">
-        <v>66572</v>
+        <v>94563</v>
       </c>
       <c r="E57" s="6">
         <v>2019</v>
@@ -2578,14 +2823,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
+      <c r="A58" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -2602,14 +2847,14 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
+      <c r="A59" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>4893</v>
+        <v>6983</v>
       </c>
       <c r="C59" s="3">
-        <v>4893</v>
+        <v>6982</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -2626,17 +2871,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
+      <c r="A60" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>4697</v>
+        <v>6714</v>
       </c>
       <c r="C60" s="3">
-        <v>2161</v>
+        <v>3110</v>
       </c>
       <c r="D60" s="3">
-        <v>2536</v>
+        <v>3604</v>
       </c>
       <c r="E60" s="6">
         <v>2019</v>
@@ -2650,17 +2895,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
+      <c r="A61" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C61" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61" s="6">
         <v>2019</v>
@@ -2674,17 +2919,17 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
+      <c r="A62" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>19057</v>
+        <v>27115</v>
       </c>
       <c r="C62" s="3">
-        <v>18370</v>
+        <v>26140</v>
       </c>
       <c r="D62" s="2">
-        <v>687</v>
+        <v>975</v>
       </c>
       <c r="E62" s="6">
         <v>2019</v>
@@ -2698,14 +2943,14 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
+      <c r="A63" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>3704</v>
+        <v>5292</v>
       </c>
       <c r="C63" s="3">
-        <v>3702</v>
+        <v>5290</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -2722,17 +2967,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
+      <c r="A64" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>396888</v>
+        <v>565377</v>
       </c>
       <c r="C64" s="3">
-        <v>28897</v>
+        <v>41202</v>
       </c>
       <c r="D64" s="3">
-        <v>367991</v>
+        <v>524175</v>
       </c>
       <c r="E64" s="6">
         <v>2019</v>
@@ -2746,17 +2991,17 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>60</v>
+      <c r="A65" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>147522</v>
+        <v>210313</v>
       </c>
       <c r="C65" s="3">
-        <v>144988</v>
+        <v>206694</v>
       </c>
       <c r="D65" s="3">
-        <v>2533</v>
+        <v>3618</v>
       </c>
       <c r="E65" s="6">
         <v>2019</v>
@@ -2770,17 +3015,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="5" t="s">
-        <v>61</v>
+      <c r="A66" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>629400</v>
+        <v>897613</v>
       </c>
       <c r="C66" s="3">
-        <v>584431</v>
+        <v>833698</v>
       </c>
       <c r="D66" s="3">
-        <v>44970</v>
+        <v>63915</v>
       </c>
       <c r="E66" s="6">
         <v>2019</v>
@@ -2794,17 +3039,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="5" t="s">
-        <v>62</v>
+      <c r="A67" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>98226</v>
+        <v>139600</v>
       </c>
       <c r="C67" s="3">
-        <v>8873</v>
+        <v>12711</v>
       </c>
       <c r="D67" s="3">
-        <v>89353</v>
+        <v>126889</v>
       </c>
       <c r="E67" s="6">
         <v>2019</v>
@@ -2818,17 +3063,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="5" t="s">
-        <v>63</v>
+      <c r="A68" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>132467</v>
+        <v>188986</v>
       </c>
       <c r="C68" s="3">
-        <v>117949</v>
+        <v>168229</v>
       </c>
       <c r="D68" s="3">
-        <v>14518</v>
+        <v>20757</v>
       </c>
       <c r="E68" s="6">
         <v>2019</v>
@@ -2842,17 +3087,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
+      <c r="A69" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>244090</v>
+        <v>347064</v>
       </c>
       <c r="C69" s="3">
-        <v>23863</v>
+        <v>34066</v>
       </c>
       <c r="D69" s="3">
-        <v>220227</v>
+        <v>312998</v>
       </c>
       <c r="E69" s="6">
         <v>2019</v>
@@ -2866,17 +3111,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="5" t="s">
-        <v>65</v>
+      <c r="A70" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>31207</v>
+        <v>44463</v>
       </c>
       <c r="C70" s="3">
-        <v>28492</v>
+        <v>40606</v>
       </c>
       <c r="D70" s="3">
-        <v>2715</v>
+        <v>3857</v>
       </c>
       <c r="E70" s="6">
         <v>2019</v>
@@ -2890,17 +3135,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
+      <c r="A71" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>389779</v>
+        <v>555923</v>
       </c>
       <c r="C71" s="3">
-        <v>308341</v>
+        <v>440457</v>
       </c>
       <c r="D71" s="3">
-        <v>81437</v>
+        <v>115466</v>
       </c>
       <c r="E71" s="6">
         <v>2019</v>
@@ -2914,17 +3159,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="5" t="s">
-        <v>67</v>
+      <c r="A72" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>159748</v>
+        <v>227923</v>
       </c>
       <c r="C72" s="3">
-        <v>88424</v>
+        <v>126347</v>
       </c>
       <c r="D72" s="3">
-        <v>71324</v>
+        <v>101576</v>
       </c>
       <c r="E72" s="6">
         <v>2019</v>
@@ -2938,14 +3183,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="5" t="s">
-        <v>68</v>
+      <c r="A73" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>2414</v>
+        <v>3425</v>
       </c>
       <c r="C73" s="3">
-        <v>2413</v>
+        <v>3424</v>
       </c>
       <c r="D73" s="2">
         <v>1</v>
@@ -2962,17 +3207,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="5" t="s">
-        <v>69</v>
+      <c r="A74" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>126928</v>
+        <v>181126</v>
       </c>
       <c r="C74" s="3">
-        <v>102541</v>
+        <v>146493</v>
       </c>
       <c r="D74" s="3">
-        <v>24387</v>
+        <v>34634</v>
       </c>
       <c r="E74" s="6">
         <v>2019</v>
@@ -2986,17 +3231,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="5" t="s">
-        <v>70</v>
+      <c r="A75" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>310524</v>
+        <v>443400</v>
       </c>
       <c r="C75" s="3">
-        <v>296428</v>
+        <v>423344</v>
       </c>
       <c r="D75" s="3">
-        <v>14096</v>
+        <v>20056</v>
       </c>
       <c r="E75" s="6">
         <v>2019</v>
@@ -3010,17 +3255,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="5" t="s">
-        <v>71</v>
+      <c r="A76" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>251815</v>
+        <v>361935</v>
       </c>
       <c r="C76" s="3">
-        <v>251582</v>
+        <v>361605</v>
       </c>
       <c r="D76" s="2">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="E76" s="6">
         <v>2019</v>
@@ -3034,17 +3279,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="5" t="s">
-        <v>72</v>
+      <c r="A77" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>331861</v>
+        <v>472720</v>
       </c>
       <c r="C77" s="3">
-        <v>147365</v>
+        <v>210774</v>
       </c>
       <c r="D77" s="3">
-        <v>184497</v>
+        <v>261946</v>
       </c>
       <c r="E77" s="6">
         <v>2019</v>
@@ -3058,17 +3303,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="5" t="s">
-        <v>73</v>
+      <c r="A78" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>78180</v>
+        <v>111535</v>
       </c>
       <c r="C78" s="3">
-        <v>66845</v>
+        <v>95435</v>
       </c>
       <c r="D78" s="3">
-        <v>11335</v>
+        <v>16100</v>
       </c>
       <c r="E78" s="6">
         <v>2019</v>
@@ -3082,17 +3327,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="5" t="s">
-        <v>74</v>
+      <c r="A79" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>23400</v>
+        <v>33465</v>
       </c>
       <c r="C79" s="3">
-        <v>22476</v>
-      </c>
-      <c r="D79" s="2">
-        <v>924</v>
+        <v>32140</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1325</v>
       </c>
       <c r="E79" s="6">
         <v>2019</v>
@@ -3106,17 +3351,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="5" t="s">
-        <v>229</v>
+      <c r="A80" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>28982</v>
+        <v>41424</v>
       </c>
       <c r="C80" s="3">
-        <v>23054</v>
+        <v>32931</v>
       </c>
       <c r="D80" s="3">
-        <v>5928</v>
+        <v>8493</v>
       </c>
       <c r="E80" s="6">
         <v>2019</v>
@@ -3130,17 +3375,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
+      <c r="A81" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>101352</v>
+        <v>144656</v>
       </c>
       <c r="C81" s="3">
-        <v>62383</v>
+        <v>89048</v>
       </c>
       <c r="D81" s="3">
-        <v>38970</v>
+        <v>55608</v>
       </c>
       <c r="E81" s="6">
         <v>2019</v>
@@ -3154,17 +3399,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
+      <c r="A82" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>53055</v>
+        <v>75705</v>
       </c>
       <c r="C82" s="3">
-        <v>50779</v>
+        <v>72463</v>
       </c>
       <c r="D82" s="3">
-        <v>2276</v>
+        <v>3242</v>
       </c>
       <c r="E82" s="6">
         <v>2019</v>
@@ -3178,17 +3423,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="5" t="s">
-        <v>77</v>
+      <c r="A83" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>244478</v>
+        <v>348925</v>
       </c>
       <c r="C83" s="3">
-        <v>196183</v>
+        <v>280122</v>
       </c>
       <c r="D83" s="3">
-        <v>48295</v>
+        <v>68803</v>
       </c>
       <c r="E83" s="6">
         <v>2019</v>
@@ -3202,17 +3447,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="5" t="s">
-        <v>78</v>
+      <c r="A84" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>171940</v>
+        <v>245426</v>
       </c>
       <c r="C84" s="3">
-        <v>120244</v>
+        <v>171928</v>
       </c>
       <c r="D84" s="3">
-        <v>51696</v>
+        <v>73498</v>
       </c>
       <c r="E84" s="6">
         <v>2019</v>
@@ -3226,17 +3471,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="5" t="s">
-        <v>79</v>
+      <c r="A85" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>16128</v>
+        <v>22985</v>
       </c>
       <c r="C85" s="3">
-        <v>12054</v>
+        <v>17181</v>
       </c>
       <c r="D85" s="3">
-        <v>4074</v>
+        <v>5804</v>
       </c>
       <c r="E85" s="6">
         <v>2019</v>
@@ -3250,17 +3495,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
+      <c r="A86" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>27800</v>
+        <v>39782</v>
       </c>
       <c r="C86" s="3">
-        <v>24719</v>
+        <v>35404</v>
       </c>
       <c r="D86" s="3">
-        <v>3082</v>
+        <v>4378</v>
       </c>
       <c r="E86" s="6">
         <v>2019</v>
@@ -3274,17 +3519,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
+      <c r="A87" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>1115757</v>
+        <v>1593590</v>
       </c>
       <c r="C87" s="3">
-        <v>970839</v>
+        <v>1386473</v>
       </c>
       <c r="D87" s="3">
-        <v>144919</v>
+        <v>207117</v>
       </c>
       <c r="E87" s="6">
         <v>2019</v>
@@ -3298,14 +3543,14 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
+      <c r="A88" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>11739</v>
+        <v>16751</v>
       </c>
       <c r="C88" s="3">
-        <v>11738</v>
+        <v>16751</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -3322,17 +3567,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
+      <c r="A89" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>17224</v>
+        <v>24643</v>
       </c>
       <c r="C89" s="3">
-        <v>16552</v>
+        <v>23689</v>
       </c>
       <c r="D89" s="2">
-        <v>672</v>
+        <v>954</v>
       </c>
       <c r="E89" s="6">
         <v>2019</v>
@@ -3346,17 +3591,17 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="5" t="s">
-        <v>84</v>
+      <c r="A90" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>674</v>
+        <v>958</v>
       </c>
       <c r="C90" s="2">
-        <v>674</v>
+        <v>958</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="6">
         <v>2019</v>
@@ -3370,17 +3615,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="5" t="s">
-        <v>85</v>
+      <c r="A91" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>117825</v>
+        <v>168244</v>
       </c>
       <c r="C91" s="3">
-        <v>106176</v>
+        <v>151657</v>
       </c>
       <c r="D91" s="3">
-        <v>11648</v>
+        <v>16587</v>
       </c>
       <c r="E91" s="6">
         <v>2019</v>
@@ -3394,14 +3639,14 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="5" t="s">
-        <v>86</v>
+      <c r="A92" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>3594</v>
+        <v>5137</v>
       </c>
       <c r="C92" s="3">
-        <v>3594</v>
+        <v>5137</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -3418,17 +3663,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="5" t="s">
-        <v>87</v>
+      <c r="A93" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>30045</v>
+        <v>43000</v>
       </c>
       <c r="C93" s="3">
-        <v>13627</v>
+        <v>19501</v>
       </c>
       <c r="D93" s="3">
-        <v>16418</v>
+        <v>23499</v>
       </c>
       <c r="E93" s="6">
         <v>2019</v>
@@ -3442,17 +3687,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="5" t="s">
-        <v>88</v>
+      <c r="A94" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>37393</v>
+        <v>53289</v>
       </c>
       <c r="C94" s="3">
-        <v>36339</v>
+        <v>51792</v>
       </c>
       <c r="D94" s="3">
-        <v>1054</v>
+        <v>1497</v>
       </c>
       <c r="E94" s="6">
         <v>2019</v>
@@ -3466,17 +3711,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="5" t="s">
-        <v>230</v>
+      <c r="A95" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2668583</v>
+        <v>3802164</v>
       </c>
       <c r="C95" s="3">
-        <v>1044888</v>
+        <v>1492805</v>
       </c>
       <c r="D95" s="3">
-        <v>1623695</v>
+        <v>2309359</v>
       </c>
       <c r="E95" s="6">
         <v>2019</v>
@@ -3490,8 +3735,8 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
+      <c r="A96" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -3500,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="6">
         <v>2019</v>
@@ -3514,17 +3759,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
+      <c r="A97" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>162326</v>
+        <v>231453</v>
       </c>
       <c r="C97" s="3">
-        <v>139508</v>
+        <v>198972</v>
       </c>
       <c r="D97" s="3">
-        <v>22818</v>
+        <v>32480</v>
       </c>
       <c r="E97" s="6">
         <v>2019</v>
@@ -3538,17 +3783,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
+      <c r="A98" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>288713</v>
+        <v>412009</v>
       </c>
       <c r="C98" s="3">
-        <v>236808</v>
+        <v>338080</v>
       </c>
       <c r="D98" s="3">
-        <v>51906</v>
+        <v>73929</v>
       </c>
       <c r="E98" s="6">
         <v>2019</v>
@@ -3562,17 +3807,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
+      <c r="A99" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>109707</v>
+        <v>156766</v>
       </c>
       <c r="C99" s="3">
-        <v>106596</v>
+        <v>152305</v>
       </c>
       <c r="D99" s="3">
-        <v>3110</v>
+        <v>4461</v>
       </c>
       <c r="E99" s="6">
         <v>2019</v>
@@ -3586,17 +3831,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
+      <c r="A100" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>91616</v>
+        <v>130763</v>
       </c>
       <c r="C100" s="3">
-        <v>79128</v>
+        <v>112983</v>
       </c>
       <c r="D100" s="3">
-        <v>12489</v>
+        <v>17781</v>
       </c>
       <c r="E100" s="6">
         <v>2019</v>
@@ -3610,17 +3855,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
+      <c r="A101" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>43374</v>
+        <v>62041</v>
       </c>
       <c r="C101" s="3">
-        <v>41305</v>
+        <v>59093</v>
       </c>
       <c r="D101" s="3">
-        <v>2069</v>
+        <v>2948</v>
       </c>
       <c r="E101" s="6">
         <v>2019</v>
@@ -3634,17 +3879,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
+      <c r="A102" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>13776</v>
+        <v>19684</v>
       </c>
       <c r="C102" s="3">
-        <v>10109</v>
+        <v>14461</v>
       </c>
       <c r="D102" s="3">
-        <v>3668</v>
+        <v>5223</v>
       </c>
       <c r="E102" s="6">
         <v>2019</v>
@@ -3658,17 +3903,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
+      <c r="A103" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>413136</v>
+        <v>588533</v>
       </c>
       <c r="C103" s="3">
-        <v>117309</v>
+        <v>167954</v>
       </c>
       <c r="D103" s="3">
-        <v>295827</v>
+        <v>420578</v>
       </c>
       <c r="E103" s="6">
         <v>2019</v>
@@ -3682,17 +3927,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="5" t="s">
-        <v>231</v>
+      <c r="A104" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>219810</v>
+        <v>313319</v>
       </c>
       <c r="C104" s="3">
-        <v>46866</v>
+        <v>67001</v>
       </c>
       <c r="D104" s="3">
-        <v>172944</v>
+        <v>246318</v>
       </c>
       <c r="E104" s="6">
         <v>2019</v>
@@ -3706,17 +3951,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>97</v>
+      <c r="A105" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>44617</v>
+        <v>63534</v>
       </c>
       <c r="C105" s="3">
-        <v>22378</v>
+        <v>31880</v>
       </c>
       <c r="D105" s="3">
-        <v>22239</v>
+        <v>31654</v>
       </c>
       <c r="E105" s="6">
         <v>2019</v>
@@ -3730,17 +3975,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>232</v>
+      <c r="A106" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>5500</v>
+        <v>7842</v>
       </c>
       <c r="C106" s="3">
-        <v>4551</v>
-      </c>
-      <c r="D106" s="2">
-        <v>948</v>
+        <v>6499</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1342</v>
       </c>
       <c r="E106" s="6">
         <v>2019</v>
@@ -3754,14 +3999,14 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
+      <c r="A107" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="C107" s="2">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
@@ -3778,17 +4023,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>99</v>
+      <c r="A108" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>2253</v>
+        <v>3215</v>
       </c>
       <c r="C108" s="3">
-        <v>2178</v>
+        <v>3108</v>
       </c>
       <c r="D108" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E108" s="6">
         <v>2019</v>
@@ -3802,17 +4047,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
+      <c r="A109" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>26096</v>
+        <v>37451</v>
       </c>
       <c r="C109" s="3">
-        <v>9151</v>
+        <v>12994</v>
       </c>
       <c r="D109" s="3">
-        <v>16945</v>
+        <v>24457</v>
       </c>
       <c r="E109" s="6">
         <v>2019</v>
@@ -3826,17 +4071,17 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>101</v>
+      <c r="A110" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>1397</v>
+        <v>1994</v>
       </c>
       <c r="C110" s="3">
-        <v>1396</v>
+        <v>1991</v>
       </c>
       <c r="D110" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" s="6">
         <v>2019</v>
@@ -3850,17 +4095,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="5" t="s">
-        <v>102</v>
+      <c r="A111" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>72242</v>
+        <v>102609</v>
       </c>
       <c r="C111" s="3">
-        <v>4167</v>
+        <v>5957</v>
       </c>
       <c r="D111" s="3">
-        <v>68075</v>
+        <v>96651</v>
       </c>
       <c r="E111" s="6">
         <v>2019</v>
@@ -3874,14 +4119,14 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="5" t="s">
-        <v>103</v>
+      <c r="A112" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -3898,17 +4143,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="5" t="s">
-        <v>104</v>
+      <c r="A113" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1405788</v>
+        <v>2004360</v>
       </c>
       <c r="C113" s="3">
-        <v>1010845</v>
+        <v>1443038</v>
       </c>
       <c r="D113" s="3">
-        <v>394942</v>
+        <v>561323</v>
       </c>
       <c r="E113" s="6">
         <v>2019</v>
@@ -3922,17 +4167,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="5" t="s">
-        <v>105</v>
+      <c r="A114" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>646193</v>
+        <v>921889</v>
       </c>
       <c r="C114" s="3">
-        <v>368226</v>
+        <v>526097</v>
       </c>
       <c r="D114" s="3">
-        <v>277967</v>
+        <v>395792</v>
       </c>
       <c r="E114" s="6">
         <v>2019</v>
@@ -3946,17 +4191,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="5" t="s">
-        <v>106</v>
+      <c r="A115" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>5940410</v>
+        <v>8471327</v>
       </c>
       <c r="C115" s="3">
-        <v>4470897</v>
+        <v>6378270</v>
       </c>
       <c r="D115" s="3">
-        <v>1469513</v>
+        <v>2093057</v>
       </c>
       <c r="E115" s="6">
         <v>2019</v>
@@ -3970,17 +4215,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="5" t="s">
-        <v>107</v>
+      <c r="A116" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>10896231</v>
+        <v>15531111</v>
       </c>
       <c r="C116" s="3">
-        <v>4536432</v>
+        <v>6474881</v>
       </c>
       <c r="D116" s="3">
-        <v>6359800</v>
+        <v>9056230</v>
       </c>
       <c r="E116" s="6">
         <v>2019</v>
@@ -3994,17 +4239,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="5" t="s">
-        <v>108</v>
+      <c r="A117" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>3752204</v>
+        <v>5344750</v>
       </c>
       <c r="C117" s="3">
-        <v>1940498</v>
+        <v>2770375</v>
       </c>
       <c r="D117" s="3">
-        <v>1811706</v>
+        <v>2574375</v>
       </c>
       <c r="E117" s="6">
         <v>2019</v>
@@ -4018,17 +4263,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="5" t="s">
-        <v>109</v>
+      <c r="A118" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>971898</v>
+        <v>1380215</v>
       </c>
       <c r="C118" s="3">
-        <v>185302</v>
+        <v>264401</v>
       </c>
       <c r="D118" s="3">
-        <v>786596</v>
+        <v>1115814</v>
       </c>
       <c r="E118" s="6">
         <v>2019</v>
@@ -4042,17 +4287,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="5" t="s">
-        <v>110</v>
+      <c r="A119" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>3315518</v>
+        <v>4725558</v>
       </c>
       <c r="C119" s="3">
-        <v>2046254</v>
+        <v>2921764</v>
       </c>
       <c r="D119" s="3">
-        <v>1269265</v>
+        <v>1803794</v>
       </c>
       <c r="E119" s="6">
         <v>2019</v>
@@ -4066,17 +4311,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="5" t="s">
-        <v>111</v>
+      <c r="A120" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>59660</v>
+        <v>84900</v>
       </c>
       <c r="C120" s="3">
-        <v>45747</v>
+        <v>65125</v>
       </c>
       <c r="D120" s="3">
-        <v>13913</v>
+        <v>19775</v>
       </c>
       <c r="E120" s="6">
         <v>2019</v>
@@ -4090,17 +4335,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="5" t="s">
-        <v>112</v>
+      <c r="A121" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>5213463</v>
+        <v>7432976</v>
       </c>
       <c r="C121" s="3">
-        <v>4579488</v>
+        <v>6531675</v>
       </c>
       <c r="D121" s="3">
-        <v>633976</v>
+        <v>901301</v>
       </c>
       <c r="E121" s="6">
         <v>2019</v>
@@ -4114,17 +4359,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="5" t="s">
-        <v>113</v>
+      <c r="A122" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>470065</v>
+        <v>670822</v>
       </c>
       <c r="C122" s="3">
-        <v>422175</v>
+        <v>602813</v>
       </c>
       <c r="D122" s="3">
-        <v>47890</v>
+        <v>68008</v>
       </c>
       <c r="E122" s="6">
         <v>2019</v>
@@ -4138,17 +4383,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="5" t="s">
-        <v>114</v>
+      <c r="A123" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>357203</v>
+        <v>509619</v>
       </c>
       <c r="C123" s="3">
-        <v>249030</v>
+        <v>355672</v>
       </c>
       <c r="D123" s="3">
-        <v>108173</v>
+        <v>153947</v>
       </c>
       <c r="E123" s="6">
         <v>2019</v>
@@ -4162,17 +4407,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
+      <c r="A124" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>2023233</v>
+        <v>2885674</v>
       </c>
       <c r="C124" s="3">
-        <v>1530021</v>
+        <v>2183460</v>
       </c>
       <c r="D124" s="3">
-        <v>493212</v>
+        <v>702214</v>
       </c>
       <c r="E124" s="6">
         <v>2019</v>
@@ -4186,17 +4431,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="5" t="s">
-        <v>116</v>
+      <c r="A125" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>36507</v>
+        <v>52087</v>
       </c>
       <c r="C125" s="3">
-        <v>30197</v>
+        <v>43110</v>
       </c>
       <c r="D125" s="3">
-        <v>6310</v>
+        <v>8977</v>
       </c>
       <c r="E125" s="6">
         <v>2019</v>
@@ -4210,17 +4455,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="5" t="s">
-        <v>233</v>
+      <c r="A126" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D126" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E126" s="6">
         <v>2019</v>
@@ -4234,17 +4479,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="5" t="s">
-        <v>117</v>
+      <c r="A127" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>635235</v>
+        <v>903878</v>
       </c>
       <c r="C127" s="3">
-        <v>174249</v>
+        <v>248221</v>
       </c>
       <c r="D127" s="3">
-        <v>460987</v>
+        <v>655656</v>
       </c>
       <c r="E127" s="6">
         <v>2019</v>
@@ -4258,17 +4503,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="5" t="s">
-        <v>118</v>
+      <c r="A128" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>157473</v>
+        <v>224462</v>
       </c>
       <c r="C128" s="3">
-        <v>93607</v>
+        <v>133662</v>
       </c>
       <c r="D128" s="3">
-        <v>63866</v>
+        <v>90800</v>
       </c>
       <c r="E128" s="6">
         <v>2019</v>
@@ -4282,17 +4527,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
+      <c r="A129" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>453862</v>
+        <v>646502</v>
       </c>
       <c r="C129" s="3">
-        <v>169200</v>
+        <v>241702</v>
       </c>
       <c r="D129" s="3">
-        <v>284663</v>
+        <v>404801</v>
       </c>
       <c r="E129" s="6">
         <v>2019</v>
@@ -4306,14 +4551,14 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="5" t="s">
-        <v>120</v>
+      <c r="A130" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="C130" s="2">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -4330,17 +4575,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="5" t="s">
-        <v>121</v>
+      <c r="A131" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>642664</v>
+        <v>916593</v>
       </c>
       <c r="C131" s="3">
-        <v>434773</v>
+        <v>620690</v>
       </c>
       <c r="D131" s="3">
-        <v>207891</v>
+        <v>295903</v>
       </c>
       <c r="E131" s="6">
         <v>2019</v>
@@ -4354,17 +4599,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="5" t="s">
-        <v>122</v>
+      <c r="A132" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>15425</v>
+        <v>21987</v>
       </c>
       <c r="C132" s="3">
-        <v>6770</v>
+        <v>9701</v>
       </c>
       <c r="D132" s="3">
-        <v>8655</v>
+        <v>12286</v>
       </c>
       <c r="E132" s="6">
         <v>2019</v>
@@ -4378,17 +4623,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="5" t="s">
-        <v>123</v>
+      <c r="A133" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>8541</v>
+        <v>12203</v>
       </c>
       <c r="C133" s="3">
-        <v>2874</v>
+        <v>4108</v>
       </c>
       <c r="D133" s="3">
-        <v>5667</v>
+        <v>8096</v>
       </c>
       <c r="E133" s="6">
         <v>2019</v>
@@ -4402,17 +4647,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>124</v>
+      <c r="A134" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>112519</v>
+        <v>160799</v>
       </c>
       <c r="C134" s="3">
-        <v>84975</v>
+        <v>121605</v>
       </c>
       <c r="D134" s="3">
-        <v>27544</v>
+        <v>39194</v>
       </c>
       <c r="E134" s="6">
         <v>2019</v>
@@ -4426,17 +4671,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="5" t="s">
-        <v>125</v>
+      <c r="A135" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>4314</v>
+        <v>6130</v>
       </c>
       <c r="C135" s="3">
-        <v>3855</v>
+        <v>5476</v>
       </c>
       <c r="D135" s="2">
-        <v>460</v>
+        <v>654</v>
       </c>
       <c r="E135" s="6">
         <v>2019</v>
@@ -4450,17 +4695,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>126</v>
+      <c r="A136" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>398771</v>
+        <v>567346</v>
       </c>
       <c r="C136" s="3">
-        <v>139410</v>
+        <v>199019</v>
       </c>
       <c r="D136" s="3">
-        <v>259361</v>
+        <v>368327</v>
       </c>
       <c r="E136" s="6">
         <v>2019</v>
@@ -4474,17 +4719,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>127</v>
+      <c r="A137" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1775889</v>
+        <v>2534854</v>
       </c>
       <c r="C137" s="3">
-        <v>1547085</v>
+        <v>2209735</v>
       </c>
       <c r="D137" s="3">
-        <v>228804</v>
+        <v>325120</v>
       </c>
       <c r="E137" s="6">
         <v>2019</v>
@@ -4498,17 +4743,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="5" t="s">
-        <v>128</v>
+      <c r="A138" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>395414</v>
+        <v>564481</v>
       </c>
       <c r="C138" s="3">
-        <v>271585</v>
+        <v>387891</v>
       </c>
       <c r="D138" s="3">
-        <v>123829</v>
+        <v>176590</v>
       </c>
       <c r="E138" s="6">
         <v>2019</v>
@@ -4522,17 +4767,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="5" t="s">
-        <v>129</v>
+      <c r="A139" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="2">
-        <v>445</v>
+        <v>634</v>
       </c>
       <c r="C139" s="2">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="D139" s="2">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="E139" s="6">
         <v>2019</v>
@@ -4546,17 +4791,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="5" t="s">
-        <v>130</v>
+      <c r="A140" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>946220</v>
+        <v>1348408</v>
       </c>
       <c r="C140" s="3">
-        <v>465296</v>
+        <v>663517</v>
       </c>
       <c r="D140" s="3">
-        <v>480923</v>
+        <v>684890</v>
       </c>
       <c r="E140" s="6">
         <v>2019</v>
@@ -4570,17 +4815,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="5" t="s">
-        <v>131</v>
+      <c r="A141" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>1575780</v>
+        <v>2240087</v>
       </c>
       <c r="C141" s="3">
-        <v>282706</v>
+        <v>402932</v>
       </c>
       <c r="D141" s="3">
-        <v>1293074</v>
+        <v>1837155</v>
       </c>
       <c r="E141" s="6">
         <v>2019</v>
@@ -4594,17 +4839,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="5" t="s">
-        <v>132</v>
+      <c r="A142" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>54948</v>
+        <v>78420</v>
       </c>
       <c r="C142" s="3">
-        <v>42565</v>
+        <v>60782</v>
       </c>
       <c r="D142" s="3">
-        <v>12384</v>
+        <v>17637</v>
       </c>
       <c r="E142" s="6">
         <v>2019</v>
@@ -4618,17 +4863,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>133</v>
+      <c r="A143" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>68195</v>
+        <v>97226</v>
       </c>
       <c r="C143" s="3">
-        <v>57977</v>
+        <v>82692</v>
       </c>
       <c r="D143" s="3">
-        <v>10218</v>
+        <v>14534</v>
       </c>
       <c r="E143" s="6">
         <v>2019</v>
@@ -4642,17 +4887,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="5" t="s">
-        <v>234</v>
+      <c r="A144" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>119124</v>
+        <v>169964</v>
       </c>
       <c r="C144" s="3">
-        <v>95782</v>
+        <v>136743</v>
       </c>
       <c r="D144" s="3">
-        <v>23342</v>
+        <v>33221</v>
       </c>
       <c r="E144" s="6">
         <v>2019</v>
@@ -4666,17 +4911,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>134</v>
+      <c r="A145" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>78407</v>
+        <v>111853</v>
       </c>
       <c r="C145" s="3">
-        <v>75759</v>
+        <v>108088</v>
       </c>
       <c r="D145" s="3">
-        <v>2648</v>
+        <v>3765</v>
       </c>
       <c r="E145" s="6">
         <v>2019</v>
@@ -4690,17 +4935,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="5" t="s">
-        <v>135</v>
+      <c r="A146" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>26646</v>
+        <v>37939</v>
       </c>
       <c r="C146" s="3">
-        <v>13615</v>
+        <v>19402</v>
       </c>
       <c r="D146" s="3">
-        <v>13031</v>
+        <v>18537</v>
       </c>
       <c r="E146" s="6">
         <v>2019</v>
@@ -4714,17 +4959,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="5" t="s">
-        <v>136</v>
+      <c r="A147" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>42224</v>
+        <v>60355</v>
       </c>
       <c r="C147" s="3">
-        <v>39938</v>
+        <v>57105</v>
       </c>
       <c r="D147" s="3">
-        <v>2286</v>
+        <v>3250</v>
       </c>
       <c r="E147" s="6">
         <v>2019</v>
@@ -4738,17 +4983,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="5" t="s">
-        <v>137</v>
+      <c r="A148" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>153792</v>
+        <v>219435</v>
       </c>
       <c r="C148" s="3">
-        <v>107754</v>
+        <v>153987</v>
       </c>
       <c r="D148" s="3">
-        <v>46038</v>
+        <v>65449</v>
       </c>
       <c r="E148" s="6">
         <v>2019</v>
@@ -4762,17 +5007,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="5" t="s">
-        <v>138</v>
+      <c r="A149" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>9233</v>
+        <v>13164</v>
       </c>
       <c r="C149" s="3">
-        <v>6438</v>
+        <v>9189</v>
       </c>
       <c r="D149" s="3">
-        <v>2795</v>
+        <v>3975</v>
       </c>
       <c r="E149" s="6">
         <v>2019</v>
@@ -4786,17 +5031,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="5" t="s">
-        <v>139</v>
+      <c r="A150" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>6651049</v>
+        <v>9476393</v>
       </c>
       <c r="C150" s="3">
-        <v>3156896</v>
+        <v>4503382</v>
       </c>
       <c r="D150" s="3">
-        <v>3494152</v>
+        <v>4973011</v>
       </c>
       <c r="E150" s="6">
         <v>2019</v>
@@ -4810,17 +5055,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="5" t="s">
-        <v>235</v>
+      <c r="A151" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>772123</v>
+        <v>1100463</v>
       </c>
       <c r="C151" s="3">
-        <v>423243</v>
+        <v>604207</v>
       </c>
       <c r="D151" s="3">
-        <v>348880</v>
+        <v>496256</v>
       </c>
       <c r="E151" s="6">
         <v>2019</v>
@@ -4834,17 +5079,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>236</v>
+      <c r="A152" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>205084</v>
+        <v>292317</v>
       </c>
       <c r="C152" s="3">
-        <v>175750</v>
+        <v>250571</v>
       </c>
       <c r="D152" s="3">
-        <v>29334</v>
+        <v>41746</v>
       </c>
       <c r="E152" s="6">
         <v>2019</v>
@@ -4858,17 +5103,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
+      <c r="A153" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>75825</v>
+        <v>108128</v>
       </c>
       <c r="C153" s="3">
-        <v>67417</v>
+        <v>96168</v>
       </c>
       <c r="D153" s="3">
-        <v>8408</v>
+        <v>11960</v>
       </c>
       <c r="E153" s="6">
         <v>2019</v>
@@ -4882,17 +5127,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>141</v>
+      <c r="A154" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>1221627</v>
+        <v>1741087</v>
       </c>
       <c r="C154" s="3">
-        <v>966870</v>
+        <v>1378317</v>
       </c>
       <c r="D154" s="3">
-        <v>254757</v>
+        <v>362770</v>
       </c>
       <c r="E154" s="6">
         <v>2019</v>
@@ -4906,17 +5151,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
+      <c r="A155" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>568136</v>
+        <v>815887</v>
       </c>
       <c r="C155" s="3">
-        <v>212055</v>
+        <v>302455</v>
       </c>
       <c r="D155" s="3">
-        <v>356081</v>
+        <v>513432</v>
       </c>
       <c r="E155" s="6">
         <v>2019</v>
@@ -4930,17 +5175,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>237</v>
+      <c r="A156" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="3">
-        <v>15057</v>
+        <v>21435</v>
       </c>
       <c r="C156" s="3">
-        <v>5935</v>
+        <v>8484</v>
       </c>
       <c r="D156" s="3">
-        <v>9122</v>
+        <v>12951</v>
       </c>
       <c r="E156" s="6">
         <v>2019</v>
@@ -4954,17 +5199,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="5" t="s">
-        <v>143</v>
+      <c r="A157" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>10510</v>
+        <v>14955</v>
       </c>
       <c r="C157" s="3">
-        <v>4765</v>
+        <v>6800</v>
       </c>
       <c r="D157" s="3">
-        <v>5744</v>
+        <v>8155</v>
       </c>
       <c r="E157" s="6">
         <v>2019</v>
@@ -4978,8 +5223,8 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>144</v>
+      <c r="A158" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
         <v>1</v>
@@ -4988,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="6">
         <v>2019</v>
@@ -5002,17 +5247,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>145</v>
+      <c r="A159" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>8129</v>
+        <v>11541</v>
       </c>
       <c r="C159" s="2">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="D159" s="3">
-        <v>8019</v>
+        <v>11384</v>
       </c>
       <c r="E159" s="6">
         <v>2019</v>
@@ -5026,17 +5271,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>146</v>
+      <c r="A160" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>93858</v>
+        <v>133551</v>
       </c>
       <c r="C160" s="3">
-        <v>64491</v>
+        <v>91829</v>
       </c>
       <c r="D160" s="3">
-        <v>29367</v>
+        <v>41722</v>
       </c>
       <c r="E160" s="6">
         <v>2019</v>
@@ -5050,17 +5295,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="5" t="s">
-        <v>147</v>
+      <c r="A161" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>6477</v>
+        <v>9268</v>
       </c>
       <c r="C161" s="3">
-        <v>6280</v>
+        <v>8986</v>
       </c>
       <c r="D161" s="2">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="E161" s="6">
         <v>2019</v>
@@ -5074,17 +5319,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="5" t="s">
-        <v>238</v>
+      <c r="A162" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C162" s="2">
         <v>1</v>
       </c>
       <c r="D162" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E162" s="6">
         <v>2019</v>
@@ -5098,17 +5343,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>148</v>
+      <c r="A163" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>19256777</v>
+        <v>27478204</v>
       </c>
       <c r="C163" s="3">
-        <v>9843126</v>
+        <v>14061135</v>
       </c>
       <c r="D163" s="3">
-        <v>9413651</v>
+        <v>13417069</v>
       </c>
       <c r="E163" s="6">
         <v>2019</v>
@@ -5122,14 +5367,14 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>149</v>
+      <c r="A164" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>8524</v>
+        <v>12303</v>
       </c>
       <c r="C164" s="3">
-        <v>8522</v>
+        <v>12301</v>
       </c>
       <c r="D164" s="2">
         <v>2</v>
@@ -5146,17 +5391,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="5" t="s">
-        <v>150</v>
+      <c r="A165" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>893060</v>
+        <v>1275993</v>
       </c>
       <c r="C165" s="3">
-        <v>424207</v>
+        <v>606132</v>
       </c>
       <c r="D165" s="3">
-        <v>468853</v>
+        <v>669861</v>
       </c>
       <c r="E165" s="6">
         <v>2019</v>
@@ -5170,14 +5415,14 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>151</v>
+      <c r="A166" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>3120</v>
+        <v>4455</v>
       </c>
       <c r="C166" s="3">
-        <v>3119</v>
+        <v>4454</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
@@ -5194,17 +5439,17 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="5" t="s">
-        <v>152</v>
+      <c r="A167" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>40808</v>
+        <v>58064</v>
       </c>
       <c r="C167" s="3">
-        <v>35996</v>
+        <v>51274</v>
       </c>
       <c r="D167" s="3">
-        <v>4812</v>
+        <v>6789</v>
       </c>
       <c r="E167" s="6">
         <v>2019</v>
@@ -5218,17 +5463,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="5" t="s">
-        <v>153</v>
+      <c r="A168" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>7924</v>
+        <v>11329</v>
       </c>
       <c r="C168" s="3">
-        <v>6129</v>
+        <v>8780</v>
       </c>
       <c r="D168" s="3">
-        <v>1795</v>
+        <v>2548</v>
       </c>
       <c r="E168" s="6">
         <v>2019</v>
@@ -5242,14 +5487,14 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="5" t="s">
-        <v>154</v>
+      <c r="A169" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>8920</v>
+        <v>12717</v>
       </c>
       <c r="C169" s="3">
-        <v>8919</v>
+        <v>12716</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -5266,17 +5511,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="5" t="s">
-        <v>155</v>
+      <c r="A170" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>88710</v>
+        <v>126496</v>
       </c>
       <c r="C170" s="3">
-        <v>58459</v>
+        <v>83519</v>
       </c>
       <c r="D170" s="3">
-        <v>30251</v>
+        <v>42977</v>
       </c>
       <c r="E170" s="6">
         <v>2019</v>
@@ -5290,8 +5535,8 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="5" t="s">
-        <v>156</v>
+      <c r="A171" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
         <v>1</v>
@@ -5300,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="6">
         <v>2019</v>
@@ -5314,17 +5559,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="5" t="s">
-        <v>157</v>
+      <c r="A172" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>6722512</v>
+        <v>9596291</v>
       </c>
       <c r="C172" s="3">
-        <v>2057179</v>
+        <v>2938315</v>
       </c>
       <c r="D172" s="3">
-        <v>4665332</v>
+        <v>6657977</v>
       </c>
       <c r="E172" s="6">
         <v>2019</v>
@@ -5338,17 +5583,17 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="5" t="s">
-        <v>158</v>
+      <c r="A173" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>2633</v>
+        <v>3817</v>
       </c>
       <c r="C173" s="3">
-        <v>2620</v>
+        <v>3799</v>
       </c>
       <c r="D173" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E173" s="6">
         <v>2019</v>
@@ -5362,17 +5607,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="5" t="s">
-        <v>159</v>
+      <c r="A174" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>2252187</v>
+        <v>3211099</v>
       </c>
       <c r="C174" s="3">
-        <v>927441</v>
+        <v>1325432</v>
       </c>
       <c r="D174" s="3">
-        <v>1324746</v>
+        <v>1885666</v>
       </c>
       <c r="E174" s="6">
         <v>2019</v>
@@ -5386,17 +5631,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="5" t="s">
-        <v>160</v>
+      <c r="A175" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>988102</v>
+        <v>1408176</v>
       </c>
       <c r="C175" s="3">
-        <v>582700</v>
+        <v>832024</v>
       </c>
       <c r="D175" s="3">
-        <v>405402</v>
+        <v>576152</v>
       </c>
       <c r="E175" s="6">
         <v>2019</v>
@@ -5410,17 +5655,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>161</v>
+      <c r="A176" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>1697</v>
+        <v>2427</v>
       </c>
       <c r="C176" s="3">
-        <v>1659</v>
+        <v>2373</v>
       </c>
       <c r="D176" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E176" s="6">
         <v>2019</v>
@@ -5434,17 +5679,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>162</v>
+      <c r="A177" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>144363</v>
+        <v>205833</v>
       </c>
       <c r="C177" s="3">
-        <v>103664</v>
+        <v>148047</v>
       </c>
       <c r="D177" s="3">
-        <v>40700</v>
+        <v>57786</v>
       </c>
       <c r="E177" s="6">
         <v>2019</v>
@@ -5458,17 +5703,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>163</v>
+      <c r="A178" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>49776</v>
+        <v>71052</v>
       </c>
       <c r="C178" s="3">
-        <v>33787</v>
+        <v>48311</v>
       </c>
       <c r="D178" s="3">
-        <v>15989</v>
+        <v>22740</v>
       </c>
       <c r="E178" s="6">
         <v>2019</v>
@@ -5482,14 +5727,14 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>164</v>
+      <c r="A179" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>3197</v>
+        <v>4560</v>
       </c>
       <c r="C179" s="3">
-        <v>3197</v>
+        <v>4560</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -5506,17 +5751,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>165</v>
+      <c r="A180" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>191262</v>
+        <v>272813</v>
       </c>
       <c r="C180" s="3">
-        <v>164380</v>
+        <v>234648</v>
       </c>
       <c r="D180" s="3">
-        <v>26882</v>
+        <v>38165</v>
       </c>
       <c r="E180" s="6">
         <v>2019</v>
@@ -5530,17 +5775,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>166</v>
+      <c r="A181" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>434465</v>
+        <v>620141</v>
       </c>
       <c r="C181" s="3">
-        <v>210044</v>
+        <v>299999</v>
       </c>
       <c r="D181" s="3">
-        <v>224420</v>
+        <v>320142</v>
       </c>
       <c r="E181" s="6">
         <v>2019</v>
@@ -5554,14 +5799,14 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B182" s="2">
-        <v>972</v>
-      </c>
-      <c r="C182" s="2">
-        <v>970</v>
+      <c r="A182" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1392</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1390</v>
       </c>
       <c r="D182" s="2">
         <v>2</v>
@@ -5578,14 +5823,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>168</v>
+      <c r="A183" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>1717</v>
+        <v>2447</v>
       </c>
       <c r="C183" s="3">
-        <v>1717</v>
+        <v>2447</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5602,14 +5847,14 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>169</v>
+      <c r="A184" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>3055</v>
+        <v>4369</v>
       </c>
       <c r="C184" s="3">
-        <v>3055</v>
+        <v>4368</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -5626,17 +5871,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
+      <c r="A185" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>155339</v>
+        <v>221841</v>
       </c>
       <c r="C185" s="3">
-        <v>144754</v>
+        <v>206800</v>
       </c>
       <c r="D185" s="3">
-        <v>10585</v>
+        <v>15041</v>
       </c>
       <c r="E185" s="6">
         <v>2019</v>
@@ -5650,17 +5895,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>171</v>
+      <c r="A186" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>17485</v>
+        <v>24916</v>
       </c>
       <c r="C186" s="3">
-        <v>15461</v>
+        <v>22043</v>
       </c>
       <c r="D186" s="3">
-        <v>2024</v>
+        <v>2874</v>
       </c>
       <c r="E186" s="6">
         <v>2019</v>
@@ -5674,17 +5919,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>172</v>
+      <c r="A187" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>34396</v>
+        <v>49064</v>
       </c>
       <c r="C187" s="3">
-        <v>34135</v>
+        <v>48694</v>
       </c>
       <c r="D187" s="2">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="E187" s="6">
         <v>2019</v>
@@ -5698,17 +5943,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>173</v>
+      <c r="A188" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>68419</v>
+        <v>97796</v>
       </c>
       <c r="C188" s="3">
-        <v>63761</v>
+        <v>91178</v>
       </c>
       <c r="D188" s="3">
-        <v>4659</v>
+        <v>6618</v>
       </c>
       <c r="E188" s="6">
         <v>2019</v>
@@ -5722,17 +5967,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="5" t="s">
-        <v>174</v>
+      <c r="A189" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>40783</v>
+        <v>58260</v>
       </c>
       <c r="C189" s="3">
-        <v>39104</v>
+        <v>55858</v>
       </c>
       <c r="D189" s="3">
-        <v>1679</v>
+        <v>2402</v>
       </c>
       <c r="E189" s="6">
         <v>2019</v>
@@ -5746,17 +5991,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="5" t="s">
-        <v>175</v>
+      <c r="A190" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="3">
-        <v>1728</v>
+        <v>2471</v>
       </c>
       <c r="C190" s="3">
-        <v>1721</v>
+        <v>2461</v>
       </c>
       <c r="D190" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E190" s="6">
         <v>2019</v>
@@ -5770,17 +6015,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="5" t="s">
-        <v>176</v>
+      <c r="A191" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>4110382</v>
+        <v>5863498</v>
       </c>
       <c r="C191" s="3">
-        <v>3287758</v>
+        <v>4693599</v>
       </c>
       <c r="D191" s="3">
-        <v>822624</v>
+        <v>1169900</v>
       </c>
       <c r="E191" s="6">
         <v>2019</v>
@@ -5794,14 +6039,14 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="5" t="s">
-        <v>177</v>
+      <c r="A192" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C192" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -5818,17 +6063,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>178</v>
+      <c r="A193" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>32088</v>
+        <v>45862</v>
       </c>
       <c r="C193" s="3">
-        <v>31101</v>
-      </c>
-      <c r="D193" s="2">
-        <v>986</v>
+        <v>44459</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1402</v>
       </c>
       <c r="E193" s="6">
         <v>2019</v>
@@ -5842,17 +6087,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="5" t="s">
-        <v>179</v>
+      <c r="A194" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>572037</v>
+        <v>820024</v>
       </c>
       <c r="C194" s="3">
-        <v>532947</v>
+        <v>763619</v>
       </c>
       <c r="D194" s="3">
-        <v>39090</v>
+        <v>56406</v>
       </c>
       <c r="E194" s="6">
         <v>2019</v>
@@ -5866,17 +6111,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="5" t="s">
-        <v>180</v>
+      <c r="A195" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>87326</v>
+        <v>124919</v>
       </c>
       <c r="C195" s="3">
-        <v>86512</v>
-      </c>
-      <c r="D195" s="2">
-        <v>814</v>
+        <v>123753</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1166</v>
       </c>
       <c r="E195" s="6">
         <v>2019</v>
@@ -5890,17 +6135,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>181</v>
+      <c r="A196" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1313733</v>
+        <v>1873175</v>
       </c>
       <c r="C196" s="3">
-        <v>570701</v>
+        <v>815620</v>
       </c>
       <c r="D196" s="3">
-        <v>743032</v>
+        <v>1057555</v>
       </c>
       <c r="E196" s="6">
         <v>2019</v>
@@ -5914,17 +6159,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>239</v>
+      <c r="A197" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>84884</v>
+        <v>120720</v>
       </c>
       <c r="C197" s="3">
-        <v>42123</v>
+        <v>60256</v>
       </c>
       <c r="D197" s="3">
-        <v>42761</v>
+        <v>60464</v>
       </c>
       <c r="E197" s="6">
         <v>2019</v>
@@ -5938,8 +6183,8 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>240</v>
+      <c r="A198" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -5948,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="6">
         <v>2019</v>
@@ -5962,17 +6207,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="5" t="s">
-        <v>182</v>
+      <c r="A199" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B199" s="3">
-        <v>1143</v>
+        <v>1625</v>
       </c>
       <c r="C199" s="3">
-        <v>1141</v>
+        <v>1622</v>
       </c>
       <c r="D199" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" s="6">
         <v>2019</v>
@@ -5986,14 +6231,14 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="5" t="s">
-        <v>183</v>
+      <c r="A200" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="2">
-        <v>498</v>
+        <v>711</v>
       </c>
       <c r="C200" s="2">
-        <v>497</v>
+        <v>709</v>
       </c>
       <c r="D200" s="2">
         <v>1</v>
@@ -6010,14 +6255,14 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="5" t="s">
-        <v>184</v>
+      <c r="A201" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="2">
-        <v>456</v>
+        <v>651</v>
       </c>
       <c r="C201" s="2">
-        <v>456</v>
+        <v>651</v>
       </c>
       <c r="D201" s="2">
         <v>0</v>
@@ -6034,17 +6279,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="5" t="s">
-        <v>185</v>
+      <c r="A202" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>79815</v>
+        <v>113879</v>
       </c>
       <c r="C202" s="3">
-        <v>63038</v>
+        <v>90033</v>
       </c>
       <c r="D202" s="3">
-        <v>16777</v>
+        <v>23846</v>
       </c>
       <c r="E202" s="6">
         <v>2019</v>
@@ -6058,17 +6303,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="5" t="s">
-        <v>241</v>
+      <c r="A203" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>19343</v>
+        <v>27578</v>
       </c>
       <c r="C203" s="3">
-        <v>14440</v>
+        <v>20616</v>
       </c>
       <c r="D203" s="3">
-        <v>4903</v>
+        <v>6962</v>
       </c>
       <c r="E203" s="6">
         <v>2019</v>
@@ -6082,17 +6327,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="5" t="s">
-        <v>186</v>
+      <c r="A204" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>59151</v>
+        <v>84202</v>
       </c>
       <c r="C204" s="3">
-        <v>25147</v>
+        <v>35924</v>
       </c>
       <c r="D204" s="3">
-        <v>34004</v>
+        <v>48278</v>
       </c>
       <c r="E204" s="6">
         <v>2019</v>
@@ -6106,17 +6351,17 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>187</v>
+      <c r="A205" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C205" s="2">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="D205" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E205" s="6">
         <v>2019</v>
@@ -6130,17 +6375,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="5" t="s">
-        <v>242</v>
+      <c r="A206" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>395442</v>
+        <v>564841</v>
       </c>
       <c r="C206" s="3">
-        <v>127127</v>
+        <v>181563</v>
       </c>
       <c r="D206" s="3">
-        <v>268315</v>
+        <v>383278</v>
       </c>
       <c r="E206" s="6">
         <v>2019</v>
@@ -6154,17 +6399,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="5" t="s">
-        <v>188</v>
+      <c r="A207" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>331075</v>
+        <v>470292</v>
       </c>
       <c r="C207" s="3">
-        <v>119215</v>
+        <v>170719</v>
       </c>
       <c r="D207" s="3">
-        <v>211861</v>
+        <v>299573</v>
       </c>
       <c r="E207" s="6">
         <v>2019</v>
@@ -6178,14 +6423,14 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="5" t="s">
-        <v>189</v>
+      <c r="A208" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>1703</v>
+        <v>2465</v>
       </c>
       <c r="C208" s="3">
-        <v>1702</v>
+        <v>2464</v>
       </c>
       <c r="D208" s="2">
         <v>1</v>
@@ -6202,17 +6447,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="5" t="s">
-        <v>190</v>
+      <c r="A209" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="B209" s="2">
-        <v>592</v>
+        <v>844</v>
       </c>
       <c r="C209" s="2">
-        <v>571</v>
+        <v>814</v>
       </c>
       <c r="D209" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E209" s="6">
         <v>2019</v>
@@ -6226,8 +6471,8 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>191</v>
+      <c r="A210" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
@@ -6236,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="6">
         <v>2019</v>
@@ -6250,14 +6495,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>192</v>
+      <c r="A211" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="B211" s="3">
-        <v>1104</v>
+        <v>1583</v>
       </c>
       <c r="C211" s="3">
-        <v>1103</v>
+        <v>1582</v>
       </c>
       <c r="D211" s="2">
         <v>1</v>
@@ -6274,17 +6519,17 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>193</v>
+      <c r="A212" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>624</v>
+        <v>889</v>
       </c>
       <c r="C212" s="2">
-        <v>624</v>
+        <v>889</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="6">
         <v>2019</v>
@@ -6298,17 +6543,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>194</v>
+      <c r="A213" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>36831930</v>
+        <v>52529373</v>
       </c>
       <c r="C213" s="3">
-        <v>27761933</v>
+        <v>39622166</v>
       </c>
       <c r="D213" s="3">
-        <v>9069997</v>
+        <v>12907206</v>
       </c>
       <c r="E213" s="6">
         <v>2019</v>
@@ -6322,17 +6567,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>195</v>
+      <c r="A214" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>3815345</v>
+        <v>5444481</v>
       </c>
       <c r="C214" s="3">
-        <v>2204075</v>
+        <v>3146035</v>
       </c>
       <c r="D214" s="3">
-        <v>1611270</v>
+        <v>2298446</v>
       </c>
       <c r="E214" s="6">
         <v>2019</v>
@@ -6346,17 +6591,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>196</v>
+      <c r="A215" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>32997711</v>
+        <v>47057948</v>
       </c>
       <c r="C215" s="3">
-        <v>25554198</v>
+        <v>36470855</v>
       </c>
       <c r="D215" s="3">
-        <v>7443513</v>
+        <v>10587093</v>
       </c>
       <c r="E215" s="6">
         <v>2019</v>
@@ -6370,17 +6615,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="5" t="s">
-        <v>243</v>
+      <c r="A216" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>15245</v>
+        <v>21712</v>
       </c>
       <c r="C216" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D216" s="3">
-        <v>15213</v>
+        <v>21666</v>
       </c>
       <c r="E216" s="6">
         <v>2019</v>
@@ -6394,14 +6639,14 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="5" t="s">
-        <v>197</v>
+      <c r="A217" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>3608</v>
+        <v>5202</v>
       </c>
       <c r="C217" s="3">
-        <v>3607</v>
+        <v>5201</v>
       </c>
       <c r="D217" s="2">
         <v>1</v>
@@ -6418,17 +6663,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="5" t="s">
-        <v>198</v>
+      <c r="A218" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C218" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="6">
         <v>2019</v>
@@ -6442,17 +6687,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>244</v>
+      <c r="A219" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>12494392</v>
+        <v>17830382</v>
       </c>
       <c r="C219" s="3">
-        <v>3930130</v>
+        <v>5611806</v>
       </c>
       <c r="D219" s="3">
-        <v>8564262</v>
+        <v>12218576</v>
       </c>
       <c r="E219" s="6">
         <v>2019</v>
@@ -6466,17 +6711,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="5" t="s">
-        <v>245</v>
+      <c r="A220" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>11018260</v>
+        <v>15725439</v>
       </c>
       <c r="C220" s="3">
-        <v>3292827</v>
+        <v>4701302</v>
       </c>
       <c r="D220" s="3">
-        <v>7725432</v>
+        <v>11024137</v>
       </c>
       <c r="E220" s="6">
         <v>2019</v>
@@ -6490,14 +6735,14 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>246</v>
+      <c r="A221" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>9465</v>
+        <v>13448</v>
       </c>
       <c r="C221" s="3">
-        <v>9465</v>
+        <v>13448</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -6514,17 +6759,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>199</v>
+      <c r="A222" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>22970</v>
+        <v>32779</v>
       </c>
       <c r="C222" s="3">
-        <v>21579</v>
+        <v>30806</v>
       </c>
       <c r="D222" s="3">
-        <v>1391</v>
+        <v>1973</v>
       </c>
       <c r="E222" s="6">
         <v>2019</v>
@@ -6538,14 +6783,14 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>200</v>
+      <c r="A223" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
@@ -6562,17 +6807,17 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="5" t="s">
-        <v>201</v>
+      <c r="A224" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C224" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="6">
         <v>2019</v>
@@ -6586,17 +6831,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>247</v>
+      <c r="A225" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C225" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D225" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" s="6">
         <v>2019</v>
@@ -6610,17 +6855,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="5" t="s">
-        <v>202</v>
+      <c r="A226" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>71964</v>
+        <v>102244</v>
       </c>
       <c r="C226" s="3">
-        <v>7121</v>
+        <v>10138</v>
       </c>
       <c r="D226" s="3">
-        <v>64843</v>
+        <v>92105</v>
       </c>
       <c r="E226" s="6">
         <v>2019</v>
@@ -6634,17 +6879,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="5" t="s">
-        <v>203</v>
+      <c r="A227" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>5443</v>
+        <v>7777</v>
       </c>
       <c r="C227" s="3">
-        <v>4802</v>
+        <v>6867</v>
       </c>
       <c r="D227" s="2">
-        <v>641</v>
+        <v>910</v>
       </c>
       <c r="E227" s="6">
         <v>2019</v>
@@ -6658,17 +6903,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="5" t="s">
-        <v>204</v>
+      <c r="A228" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>976086</v>
+        <v>1390930</v>
       </c>
       <c r="C228" s="3">
-        <v>405332</v>
+        <v>578325</v>
       </c>
       <c r="D228" s="3">
-        <v>570754</v>
+        <v>812605</v>
       </c>
       <c r="E228" s="6">
         <v>2019</v>
@@ -6682,17 +6927,17 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="5" t="s">
-        <v>205</v>
+      <c r="A229" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C229" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="6">
         <v>2019</v>
@@ -6706,17 +6951,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="5" t="s">
-        <v>248</v>
+      <c r="A230" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>235216</v>
+        <v>335374</v>
       </c>
       <c r="C230" s="3">
-        <v>49232</v>
+        <v>70371</v>
       </c>
       <c r="D230" s="3">
-        <v>185984</v>
+        <v>265003</v>
       </c>
       <c r="E230" s="6">
         <v>2019</v>
@@ -6730,17 +6975,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="5" t="s">
-        <v>206</v>
+      <c r="A231" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C231" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="6">
         <v>2019</v>
@@ -6754,17 +6999,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
+      <c r="A232" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>18186</v>
+        <v>26093</v>
       </c>
       <c r="C232" s="3">
-        <v>3435</v>
+        <v>4913</v>
       </c>
       <c r="D232" s="3">
-        <v>14751</v>
+        <v>21179</v>
       </c>
       <c r="E232" s="6">
         <v>2019</v>
@@ -6778,17 +7023,17 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="5" t="s">
-        <v>208</v>
+      <c r="A233" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="3">
-        <v>1815</v>
+        <v>2586</v>
       </c>
       <c r="C233" s="3">
-        <v>1815</v>
+        <v>2586</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="6">
         <v>2019</v>
@@ -6802,8 +7047,8 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>209</v>
+      <c r="A234" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -6812,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="6">
         <v>2019</v>
@@ -6826,8 +7071,8 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>210</v>
+      <c r="A235" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -6836,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="6">
         <v>2019</v>
@@ -6850,14 +7095,14 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>211</v>
+      <c r="A236" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>5004</v>
+        <v>7145</v>
       </c>
       <c r="C236" s="3">
-        <v>5004</v>
+        <v>7144</v>
       </c>
       <c r="D236" s="2">
         <v>1</v>
@@ -6874,17 +7119,17 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B237" s="2">
-        <v>880</v>
-      </c>
-      <c r="C237" s="2">
-        <v>880</v>
+      <c r="A237" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1265</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1265</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E237" s="6">
         <v>2019</v>
@@ -6898,17 +7143,17 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>213</v>
+      <c r="A238" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>1009</v>
+        <v>1465</v>
       </c>
       <c r="C238" s="3">
-        <v>1009</v>
+        <v>1465</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="6">
         <v>2019</v>
@@ -6922,17 +7167,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>214</v>
+      <c r="A239" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>2034</v>
+        <v>2898</v>
       </c>
       <c r="C239" s="3">
-        <v>2034</v>
+        <v>2898</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E239" s="6">
         <v>2019</v>
@@ -6946,17 +7191,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>215</v>
+      <c r="A240" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>115358</v>
+        <v>165657</v>
       </c>
       <c r="C240" s="3">
-        <v>115338</v>
+        <v>165628</v>
       </c>
       <c r="D240" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E240" s="6">
         <v>2019</v>
@@ -6970,17 +7215,17 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>216</v>
+      <c r="A241" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="B241" s="3">
-        <v>1286</v>
+        <v>1847</v>
       </c>
       <c r="C241" s="3">
-        <v>1286</v>
+        <v>1847</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E241" s="6">
         <v>2019</v>
@@ -6994,17 +7239,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>217</v>
+      <c r="A242" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>6626</v>
+        <v>9453</v>
       </c>
       <c r="C242" s="3">
-        <v>6210</v>
+        <v>8860</v>
       </c>
       <c r="D242" s="2">
-        <v>417</v>
+        <v>592</v>
       </c>
       <c r="E242" s="6">
         <v>2019</v>
@@ -7018,17 +7263,17 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>218</v>
+      <c r="A243" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C243" s="2">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="6">
         <v>2019</v>
@@ -7042,17 +7287,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>249</v>
+      <c r="A244" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>2564</v>
+        <v>3660</v>
       </c>
       <c r="C244" s="3">
-        <v>2536</v>
+        <v>3620</v>
       </c>
       <c r="D244" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E244" s="6">
         <v>2019</v>
@@ -7066,17 +7311,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>219</v>
+      <c r="A245" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>48734</v>
+        <v>69211</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
       </c>
       <c r="D245" s="3">
-        <v>48734</v>
+        <v>69211</v>
       </c>
       <c r="E245" s="6">
         <v>2019</v>
